--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -793,7 +793,7 @@
     <t>相手の場のユニット2体を手札に戻す</t>
   </si>
   <si>
-    <t>相手の装備または建物を1枚捨てる</t>
+    <t>場の装備または建物を1枚捨ててもよい</t>
   </si>
   <si>
     <t>自分の山札を上から1枚捨てる</t>
@@ -9448,7 +9448,7 @@
       <c r="Z228" s="1"/>
     </row>
     <row r="229" ht="42.0" customHeight="1">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B229" s="1">

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -550,7 +550,7 @@
     <t>次のターン、対象は「速攻」から攻撃対象にならない</t>
   </si>
   <si>
-    <t>ユニット1体の状態異常をすべて回復する</t>
+    <t>対象の状態異常をすべて回復する</t>
   </si>
   <si>
     <t>対象を封印状態にする</t>
@@ -634,7 +634,7 @@
     <t>味方全体のHPを2回復する</t>
   </si>
   <si>
-    <t>お互いのユニット全員を毒状態にする</t>
+    <t>お互いのユニット全体を毒状態にする</t>
   </si>
   <si>
     <t>山札からトラップカードを1枚セットする</t>
@@ -6808,7 +6808,7 @@
       <c r="Z155" s="1"/>
     </row>
     <row r="156" ht="42.0" customHeight="1">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B156" s="1">
@@ -7672,7 +7672,7 @@
       <c r="Z179" s="1"/>
     </row>
     <row r="180" ht="42.0" customHeight="1">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B180" s="1">
